--- a/Medina Tolentino Elio 20212.xlsx
+++ b/Medina Tolentino Elio 20212.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="984">
   <si>
     <t>NC</t>
   </si>
@@ -1517,6 +1517,9 @@
     <t>IXTLA</t>
   </si>
   <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>ESTRELLA</t>
   </si>
   <si>
@@ -1556,12 +1559,12 @@
     <t>EDGAR DANIEL</t>
   </si>
   <si>
+    <t>JESUS</t>
+  </si>
+  <si>
     <t>EVELYN</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>ANGEL ALDAHIR</t>
   </si>
   <si>
@@ -1616,6 +1619,9 @@
     <t>danycraft111@gmail.com</t>
   </si>
   <si>
+    <t>jesushernandezsarmiento108@gmail.com</t>
+  </si>
+  <si>
     <t>evelynldj@gmail.com</t>
   </si>
   <si>
@@ -1685,6 +1691,9 @@
     <t>2721859278</t>
   </si>
   <si>
+    <t>2722146369</t>
+  </si>
+  <si>
     <t>2721972074</t>
   </si>
   <si>
@@ -1782,6 +1791,9 @@
   </si>
   <si>
     <t>FRANCISCO JAVIER HERNANDEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>JORGE HERNÁNDEZ ATLAHUA</t>
   </si>
   <si>
     <t>MALDONADO LÓPEZ TETLA</t>
@@ -4061,7 +4073,7 @@
         <v>230</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4157,7 +4169,7 @@
         <v>233</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4349,7 +4361,7 @@
         <v>238</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5596,7 +5608,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5657,22 +5669,22 @@
         <v>490</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="I2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="J2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5689,22 +5701,22 @@
         <v>491</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5721,25 +5733,25 @@
         <v>492</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G4" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H4" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="I4" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="J4" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -5756,25 +5768,25 @@
         <v>493</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G5" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H5" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="I5" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="J5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -5791,25 +5803,25 @@
         <v>494</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H6" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="I6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5826,25 +5838,25 @@
         <v>495</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="I7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="J7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5861,22 +5873,22 @@
         <v>496</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="I8" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J8" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5893,22 +5905,22 @@
         <v>497</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H9" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="I9" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="J9" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -5925,25 +5937,25 @@
         <v>498</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H10" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="I10" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J10" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -5960,19 +5972,19 @@
         <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G11" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H11" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -5980,133 +5992,133 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920347</v>
+        <v>20330051920346</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F12" t="s">
-        <v>555</v>
+        <v>557</v>
+      </c>
+      <c r="G12" t="s">
+        <v>557</v>
       </c>
       <c r="H12" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="I12" t="s">
-        <v>609</v>
+        <v>533</v>
       </c>
       <c r="J12" t="s">
-        <v>628</v>
+        <v>557</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920348</v>
+        <v>20330051920347</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>499</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F13" t="s">
-        <v>556</v>
-      </c>
-      <c r="G13" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="H13" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I13" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="J13" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20330051920349</v>
+        <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F14" t="s">
-        <v>557</v>
+        <v>559</v>
+      </c>
+      <c r="G14" t="s">
+        <v>575</v>
       </c>
       <c r="H14" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="I14" t="s">
-        <v>534</v>
+        <v>614</v>
       </c>
       <c r="J14" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920350</v>
+        <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>515</v>
       </c>
       <c r="E15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F15" t="s">
-        <v>558</v>
-      </c>
-      <c r="G15" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H15" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="I15" t="s">
-        <v>611</v>
+        <v>536</v>
       </c>
       <c r="J15" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6114,139 +6126,139 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920352</v>
+        <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>516</v>
       </c>
       <c r="E16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F16" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G16" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="H16" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="I16" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="J16" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920353</v>
+        <v>20330051920352</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>517</v>
       </c>
       <c r="E17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F17" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H17" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I17" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="J17" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20330051920354</v>
+        <v>20330051920353</v>
       </c>
       <c r="B18" t="s">
-        <v>485</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>518</v>
       </c>
       <c r="E18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F18" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G18" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="H18" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="I18" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="J18" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920355</v>
+        <v>20330051920354</v>
       </c>
       <c r="B19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="E19" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G19" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="H19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I19" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="J19" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -6254,98 +6266,101 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920382</v>
+        <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F20" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G20" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="H20" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="I20" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="J20" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330050470596</v>
+        <v>20330051920382</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>487</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F21" t="s">
-        <v>564</v>
+        <v>566</v>
+      </c>
+      <c r="G21" t="s">
+        <v>566</v>
       </c>
       <c r="H21" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I21" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="J21" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>20330051920356</v>
+        <v>19330050470596</v>
       </c>
       <c r="B22" t="s">
-        <v>488</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
         <v>520</v>
       </c>
       <c r="E22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F22" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H22" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="I22" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="J22" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -6353,71 +6368,103 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20330051920357</v>
+        <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C23" t="s">
         <v>501</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>521</v>
       </c>
       <c r="E23" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F23" t="s">
-        <v>566</v>
-      </c>
-      <c r="G23" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="H23" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="I23" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="J23" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
+        <v>20330051920357</v>
+      </c>
+      <c r="B24" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>545</v>
+      </c>
+      <c r="F24" t="s">
+        <v>569</v>
+      </c>
+      <c r="G24" t="s">
+        <v>579</v>
+      </c>
+      <c r="H24" t="s">
+        <v>603</v>
+      </c>
+      <c r="I24" t="s">
+        <v>623</v>
+      </c>
+      <c r="J24" t="s">
+        <v>569</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
         <v>20330051920383</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>251</v>
       </c>
-      <c r="D24" t="s">
-        <v>521</v>
-      </c>
-      <c r="E24" t="s">
-        <v>544</v>
-      </c>
-      <c r="F24" t="s">
-        <v>567</v>
-      </c>
-      <c r="G24" t="s">
-        <v>577</v>
-      </c>
-      <c r="H24" t="s">
-        <v>600</v>
-      </c>
-      <c r="I24" t="s">
-        <v>620</v>
-      </c>
-      <c r="J24" t="s">
-        <v>637</v>
-      </c>
-      <c r="K24">
+      <c r="D25" t="s">
+        <v>522</v>
+      </c>
+      <c r="E25" t="s">
+        <v>546</v>
+      </c>
+      <c r="F25" t="s">
+        <v>570</v>
+      </c>
+      <c r="G25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H25" t="s">
+        <v>604</v>
+      </c>
+      <c r="I25" t="s">
+        <v>624</v>
+      </c>
+      <c r="J25" t="s">
+        <v>641</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
     </row>
@@ -6486,22 +6533,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="H2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="I2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="J2" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -6515,28 +6562,28 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D3" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="E3" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F3" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="G3" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H3" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="I3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="J3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -6547,28 +6594,28 @@
         <v>20330051920320</v>
       </c>
       <c r="B4" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C4" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E4" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F4" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H4" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="I4" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="J4" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -6582,22 +6629,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E5" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F5" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G5" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="H5" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -6614,25 +6661,25 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E6" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F6" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="G6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="H6" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="I6" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="J6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -6646,28 +6693,28 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="G7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="H7" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="I7" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="J7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -6678,28 +6725,28 @@
         <v>20330051920380</v>
       </c>
       <c r="B8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C8" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="E8" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F8" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H8" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="I8" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="J8" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -6716,25 +6763,25 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E9" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F9" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="G9" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="H9" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="I9" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="J9" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -6748,28 +6795,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D10" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E10" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F10" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="G10" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H10" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="I10" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="J10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -6780,31 +6827,31 @@
         <v>20330051920397</v>
       </c>
       <c r="B11" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E11" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F11" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G11" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="H11" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="I11" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="J11" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -6821,22 +6868,22 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E12" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F12" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H12" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="I12" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="J12" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -6847,28 +6894,28 @@
         <v>20330051920327</v>
       </c>
       <c r="B13" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="E13" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F13" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="H13" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="I13" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="J13" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -6879,31 +6926,31 @@
         <v>20330051920328</v>
       </c>
       <c r="B14" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="E14" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F14" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G14" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H14" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="I14" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="J14" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -6914,31 +6961,31 @@
         <v>20330051920396</v>
       </c>
       <c r="B15" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E15" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F15" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="G15" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H15" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="I15" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="J15" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -6949,31 +6996,31 @@
         <v>20330051920329</v>
       </c>
       <c r="B16" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C16" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D16" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E16" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F16" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="G16" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="H16" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="I16" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="J16" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -6984,28 +7031,28 @@
         <v>20330051920330</v>
       </c>
       <c r="B17" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C17" t="s">
         <v>265</v>
       </c>
       <c r="D17" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="E17" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F17" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="G17" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H17" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="J17" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -7022,25 +7069,25 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E18" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F18" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="G18" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="H18" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="I18" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="J18" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7057,25 +7104,25 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E19" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F19" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="G19" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="H19" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="I19" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="J19" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -7089,25 +7136,25 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D20" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E20" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F20" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H20" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="I20" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="J20" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -7175,28 +7222,28 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C2" t="s">
         <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="G2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="H2" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="J2" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7207,28 +7254,28 @@
         <v>19330051920247</v>
       </c>
       <c r="B3" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="E3" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F3" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="H3" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="I3" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="J3" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -7245,25 +7292,25 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="E4" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="F4" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="G4" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="H4" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="I4" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="J4" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -7274,31 +7321,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C5" t="s">
         <v>496</v>
       </c>
       <c r="D5" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="E5" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="F5" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G5" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="H5" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="I5" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="J5" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -7312,28 +7359,28 @@
         <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D6" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E6" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="F6" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G6" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="H6" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="I6" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="J6" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -7353,22 +7400,22 @@
         <v>285</v>
       </c>
       <c r="E7" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="F7" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G7" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="H7" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="I7" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="J7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -7382,25 +7429,25 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D8" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E8" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F8" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="G8" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="H8" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="I8" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -7414,25 +7461,25 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D9" t="s">
         <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="F9" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="H9" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="I9" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="J9" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -7449,25 +7496,25 @@
         <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="E10" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="F10" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="G10" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="H10" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I10" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="J10" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -7481,28 +7528,28 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D11" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="E11" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F11" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="G11" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="H11" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="I11" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="J11" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -7519,25 +7566,25 @@
         <v>246</v>
       </c>
       <c r="D12" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E12" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="F12" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="G12" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="H12" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="I12" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="J12" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -7551,28 +7598,28 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="D13" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="E13" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F13" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="G13" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="H13" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="I13" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="J13" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -7586,28 +7633,28 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="D14" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="E14" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="F14" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="G14" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="H14" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="I14" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="J14" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -7621,25 +7668,25 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="D15" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E15" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="F15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="G15" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="H15" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="I15" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -7653,28 +7700,28 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D16" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E16" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="F16" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G16" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="H16" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="I16" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="J16" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -7685,31 +7732,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C17" t="s">
         <v>488</v>
       </c>
       <c r="D17" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E17" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="F17" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="G17" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H17" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="I17" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="J17" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -7723,28 +7770,28 @@
         <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="D18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E18" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="F18" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="G18" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="H18" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="I18" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="J18" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -7755,31 +7802,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C19" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D19" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="E19" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F19" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="G19" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="H19" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="I19" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="J19" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -7790,22 +7837,22 @@
         <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="E20" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="F20" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="H20" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -7816,31 +7863,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C21" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="D21" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="E21" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="F21" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="G21" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="H21" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="I21" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="J21" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -7851,22 +7898,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C22" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="D22" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="E22" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="F22" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="H22" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -7880,28 +7927,28 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D23" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E23" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F23" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G23" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="H23" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="I23" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="J23" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -7912,28 +7959,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C24" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D24" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="E24" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="F24" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H24" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="I24" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="J24" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -7947,28 +7994,28 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="D25" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="E25" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="F25" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="G25" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="H25" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="I25" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="J25" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -7979,31 +8026,31 @@
         <v>19330051920348</v>
       </c>
       <c r="B26" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E26" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="F26" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="G26" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="H26" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="I26" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="J26" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -8017,28 +8064,28 @@
         <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D27" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="E27" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="F27" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="G27" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="H27" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="I27" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="J27" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -8055,25 +8102,25 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="E28" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F28" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="G28" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="H28" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="I28" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="J28" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -8090,22 +8137,22 @@
         <v>271</v>
       </c>
       <c r="D29" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="E29" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="F29" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="H29" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="I29" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="J29" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -8122,22 +8169,22 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="E30" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="G30" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H30" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="I30" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="J30" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -8151,28 +8198,28 @@
         <v>271</v>
       </c>
       <c r="C31" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D31" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="E31" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="F31" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="G31" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="H31" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="I31" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="J31" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -8183,25 +8230,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B32" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C32" t="s">
         <v>271</v>
       </c>
       <c r="D32" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="E32" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="F32" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="H32" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="I32" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -8212,22 +8259,22 @@
         <v>19330051920414</v>
       </c>
       <c r="B33" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C33" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D33" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="E33" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="F33" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="H33" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="K33">
         <v>2</v>

--- a/Medina Tolentino Elio 20212.xlsx
+++ b/Medina Tolentino Elio 20212.xlsx
@@ -3540,7 +3540,7 @@
         <v>218</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5987,7 +5987,7 @@
         <v>590</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
